--- a/SVD_Files/Timer.xlsx
+++ b/SVD_Files/Timer.xlsx
@@ -303,9 +303,6 @@
     <t xml:space="preserve">2 - Rise in CH2_Inp for Ch1 / Inp3 for Ch2 / Inp4 for Ch3 / Inp1 for Ch4 </t>
   </si>
   <si>
-    <t xml:space="preserve">3 - Fall  in CH2_Inp for Ch1 / Inp3 for Ch2 / Inp4 for Ch3 / Inp1 for Ch4 </t>
-  </si>
-  <si>
     <t>CHPSC</t>
   </si>
   <si>
@@ -825,6 +822,9 @@
   </si>
   <si>
     <t>Like CHx_CNTRL1.CHSEL - Sel input to capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Rise in CH3_Inp for Ch1 / Inp4 for Ch2 / Inp1 for Ch3 / Inp2 for Ch4 </t>
   </si>
 </sst>
 </file>
@@ -1254,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1491,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1632,10 +1632,10 @@
         <v>57</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,15 +1739,15 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,76 +1755,76 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
       <c r="C62" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C68" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
         <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1865,10 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" t="s">
         <v>97</v>
-      </c>
-      <c r="C77" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -1889,10 +1889,10 @@
     </row>
     <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
@@ -1900,77 +1900,77 @@
     </row>
     <row r="82" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
         <v>106</v>
       </c>
-      <c r="B85" t="s">
-        <v>107</v>
-      </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
         <v>112</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>113</v>
-      </c>
-      <c r="C89" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,40 +1978,40 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
         <v>115</v>
-      </c>
-      <c r="C90" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,10 +2019,10 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" t="s">
         <v>125</v>
-      </c>
-      <c r="C94" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>10</v>
@@ -2043,10 +2043,10 @@
     </row>
     <row r="98" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1</v>
@@ -2054,38 +2054,38 @@
     </row>
     <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2093,10 @@
         <v>60</v>
       </c>
       <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
         <v>137</v>
-      </c>
-      <c r="C102" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,29 +2104,29 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" t="s">
         <v>139</v>
-      </c>
-      <c r="C103" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" t="s">
         <v>141</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>142</v>
-      </c>
-      <c r="C105" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>10</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,32 +2172,32 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" t="s">
         <v>149</v>
-      </c>
-      <c r="C111" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s">
         <v>151</v>
-      </c>
-      <c r="C112" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
         <v>153</v>
-      </c>
-      <c r="C113" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>10</v>
@@ -2218,35 +2218,35 @@
     </row>
     <row r="117" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,43 +2298,43 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" t="s">
         <v>167</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>168</v>
-      </c>
-      <c r="C125" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" t="s">
         <v>170</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>171</v>
-      </c>
-      <c r="C126" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B127" t="s">
         <v>173</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>174</v>
-      </c>
-      <c r="C127" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>10</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -2366,51 +2366,51 @@
     </row>
     <row r="132" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C133" s="1"/>
       <c r="D133" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C135" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,10 +2418,10 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
+        <v>194</v>
+      </c>
+      <c r="C136" t="s">
         <v>195</v>
-      </c>
-      <c r="C136" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2429,10 @@
         <v>3</v>
       </c>
       <c r="B137" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" t="s">
         <v>197</v>
-      </c>
-      <c r="C137" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,7 +2445,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>10</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="141" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1</v>
@@ -2464,38 +2464,38 @@
     </row>
     <row r="142" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2535,13 +2535,13 @@
     </row>
     <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>5</v>
@@ -2549,13 +2549,13 @@
     </row>
     <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>5</v>
@@ -2563,13 +2563,13 @@
     </row>
     <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>5</v>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>5</v>
@@ -2591,13 +2591,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -2648,139 +2648,139 @@
     <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="D1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K6" s="9"/>
     </row>

--- a/SVD_Files/Timer.xlsx
+++ b/SVD_Files/Timer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -924,47 +924,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1254,1537 +1281,1834 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="63.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="14">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="14">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="15" t="s">
         <v>26</v>
       </c>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="15" t="s">
         <v>237</v>
       </c>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="21" t="s">
         <v>68</v>
       </c>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>8</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="11" t="s">
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+      <c r="D68" s="15"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="11" t="s">
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>12</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
         <v>13</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
         <v>14</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="12" t="s">
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="12" t="s">
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="D79" s="15"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="17" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="17" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="15" t="s">
         <v>108</v>
       </c>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15" t="s">
         <v>107</v>
       </c>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15" t="s">
         <v>110</v>
       </c>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="15" t="s">
         <v>113</v>
       </c>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="14">
         <v>4</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="15" t="s">
         <v>115</v>
       </c>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="24" t="s">
         <v>118</v>
       </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="15" t="s">
         <v>120</v>
       </c>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="15" t="s">
         <v>123</v>
       </c>
+      <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="14">
         <v>12</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="15" t="s">
         <v>125</v>
       </c>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="14"/>
+      <c r="B95" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="12" t="s">
+      <c r="A96" s="14"/>
+      <c r="B96" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="D96" s="15"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="17" t="s">
+      <c r="C99" s="20"/>
+      <c r="D99" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="17" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="17" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="15" t="s">
         <v>137</v>
       </c>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="14">
         <v>4</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="15" t="s">
         <v>139</v>
       </c>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="24" t="s">
         <v>118</v>
       </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="15" t="s">
         <v>142</v>
       </c>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="12" t="s">
+      <c r="A106" s="14"/>
+      <c r="B106" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+      <c r="A107" s="14"/>
+      <c r="B107" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="14"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="D109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
+      <c r="A110" s="14">
         <v>0</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="15" t="s">
         <v>149</v>
       </c>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="14">
         <v>1</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="15" t="s">
         <v>149</v>
       </c>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="15" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="D112" s="15"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="15" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
+      <c r="D113" s="15"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="12" t="s">
+      <c r="D114" s="15"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+    </row>
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
         <v>0</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="15" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+      <c r="D120" s="15"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
         <v>1</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
+      <c r="D121" s="15"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
         <v>2</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
         <v>3</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
+      <c r="D123" s="15"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
         <v>4</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="15" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="D126" s="15"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="12" t="s">
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="12" t="s">
+      <c r="A129" s="14"/>
+      <c r="B129" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D129" s="15"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="14"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+    </row>
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="17" t="s">
+      <c r="C133" s="8"/>
+      <c r="D133" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="17" t="s">
+      <c r="C134" s="8"/>
+      <c r="D134" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="15" t="s">
         <v>242</v>
       </c>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
+      <c r="A136" s="14">
         <v>2</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="15" t="s">
         <v>195</v>
       </c>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="A137" s="14">
         <v>3</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="15" t="s">
         <v>197</v>
       </c>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="12" t="s">
+      <c r="A138" s="14"/>
+      <c r="B138" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D138" s="15"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="12" t="s">
+      <c r="A139" s="14"/>
+      <c r="B139" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="D139" s="15"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+    </row>
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="17" t="s">
+      <c r="C142" s="8"/>
+      <c r="D142" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="17" t="s">
+      <c r="C143" s="8"/>
+      <c r="D143" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="17" t="s">
+      <c r="C144" s="8"/>
+      <c r="D144" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="B145" s="11"/>
+      <c r="C145" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+    <row r="146" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+      <c r="A147" s="14"/>
+      <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D147" s="15"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+      <c r="A148" s="14"/>
+      <c r="B148" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="D148" s="15"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+    </row>
+    <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="15" t="s">
         <v>211</v>
       </c>
+      <c r="D154" s="15"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="12" t="s">
+      <c r="A155" s="14"/>
+      <c r="B155" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="D155" s="15"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="12" t="s">
+      <c r="A156" s="14"/>
+      <c r="B156" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="D156" s="15"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="12"/>
-      <c r="C158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B159" s="12"/>
-      <c r="C159" s="6"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" customWidth="1"/>
+    <col min="3" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="H1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="H6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="J6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SVD_Files/Timer.xlsx
+++ b/SVD_Files/Timer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="259">
   <si>
     <t>0x00</t>
   </si>
@@ -826,12 +826,57 @@
   <si>
     <t xml:space="preserve">3 - Rise in CH3_Inp for Ch1 / Inp4 for Ch2 / Inp1 for Ch3 / Inp2 for Ch4 </t>
   </si>
+  <si>
+    <t>BE8</t>
+  </si>
+  <si>
+    <t>ВК014</t>
+  </si>
+  <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>0x4009_4000</t>
+  </si>
+  <si>
+    <t>0x4009_5000</t>
+  </si>
+  <si>
+    <t>0x4009_6000</t>
+  </si>
+  <si>
+    <t>0x4008_A000</t>
+  </si>
+  <si>
+    <t>0x4008_B000</t>
+  </si>
+  <si>
+    <t>0x4008_C000</t>
+  </si>
+  <si>
+    <t>0x4008_D000</t>
+  </si>
+  <si>
+    <t>0x4008_E000</t>
+  </si>
+  <si>
+    <t>0x4008_F000</t>
+  </si>
+  <si>
+    <t>Timer5</t>
+  </si>
+  <si>
+    <t>Timer6</t>
+  </si>
+  <si>
+    <t>Timers аналогичны 1986ВЕ1Т</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -895,6 +940,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -916,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -939,11 +994,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -992,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1281,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
@@ -2943,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,7 +3174,114 @@
       </c>
       <c r="J6" s="5"/>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SVD_Files/Timer.xlsx
+++ b/SVD_Files/Timer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="260">
   <si>
     <t>0x00</t>
   </si>
@@ -871,12 +871,15 @@
   <si>
     <t>Timers аналогичны 1986ВЕ1Т</t>
   </si>
+  <si>
+    <t>0..31 - for VE8 (опечатка?)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +953,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1007,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,6 +1073,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1348,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1453,9 @@
       <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="29" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -3012,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/SVD_Files/Timer.xlsx
+++ b/SVD_Files/Timer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="261">
   <si>
     <t>0x00</t>
   </si>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>0..31 - for VE8 (опечатка?)</t>
+  </si>
+  <si>
+    <t>0x4009_7000</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1073,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1361,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1453,7 +1456,7 @@
       <c r="C8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3027,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,8 +3256,8 @@
       <c r="D13" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>118</v>
+      <c r="E13" s="15" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3286,12 +3289,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
